--- a/data/SCIJ_MOCK_HEADERS_EXCLUDE.xlsx
+++ b/data/SCIJ_MOCK_HEADERS_EXCLUDE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\harid\Documents\Spring 2022\SCIJPartnerMatching\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0C8E49-D9B0-4A3F-AE6E-8BFE6E2EA922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D09AAA2-A79C-4108-B615-9041A115E82D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>header</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>exclude_if "Yes"</t>
+  </si>
+  <si>
+    <t>How many cases have you worked on?</t>
+  </si>
+  <si>
+    <t>different_number</t>
   </si>
 </sst>
 </file>
@@ -387,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,6 +504,17 @@
         <v>1</v>
       </c>
     </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
